--- a/BalanceSheet/MSI_bal.xlsx
+++ b/BalanceSheet/MSI_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-16000000.0</v>
+        <v>508000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>489000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1000000.0</v>
+        <v>449000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2000000.0</v>
+        <v>442000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>14000000.0</v>
+        <v>447000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>460000000.0</v>
@@ -1932,19 +1932,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>263000000.0</v>
+        <v>612000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>75000000.0</v>
+        <v>536000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-153000000.0</v>
+        <v>498000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-301000000.0</v>
+        <v>531000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>341000000.0</v>
+        <v>618000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>557000000.0</v>
@@ -2914,19 +2914,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-49000000.0</v>
+        <v>-786000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>23000000.0</v>
+        <v>-697000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-3000000.0</v>
+        <v>-747000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>4000000.0</v>
+        <v>-747000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-125000000.0</v>
+        <v>-759000000.0</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
